--- a/data/pca/factorExposure/factorExposure_2018-10-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.05646463312582223</v>
+        <v>-0.04135956373869151</v>
       </c>
       <c r="C2">
-        <v>0.07001741862134502</v>
+        <v>-0.0005347022465643079</v>
       </c>
       <c r="D2">
-        <v>0.04707688247747002</v>
+        <v>-0.01657429153555533</v>
       </c>
       <c r="E2">
-        <v>-0.06289320383739772</v>
+        <v>0.01532902904336912</v>
       </c>
       <c r="F2">
-        <v>0.1484508537515526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04491792244105838</v>
+      </c>
+      <c r="G2">
+        <v>-0.1044049746512308</v>
+      </c>
+      <c r="H2">
+        <v>-0.04652864217426576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1538794665271867</v>
+        <v>-0.09850474341431154</v>
       </c>
       <c r="C3">
-        <v>0.03283678640733309</v>
+        <v>0.04422096126291038</v>
       </c>
       <c r="D3">
-        <v>0.06421442756056206</v>
+        <v>-0.04182825098932098</v>
       </c>
       <c r="E3">
-        <v>-0.1155215588428489</v>
+        <v>0.01119793618050051</v>
       </c>
       <c r="F3">
-        <v>0.4128201949736806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.02381114855533639</v>
+      </c>
+      <c r="G3">
+        <v>-0.3457382286806447</v>
+      </c>
+      <c r="H3">
+        <v>-0.1646903963435989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06082471374844468</v>
+        <v>-0.053052667253013</v>
       </c>
       <c r="C4">
-        <v>0.04181461185290428</v>
+        <v>0.01023042702390536</v>
       </c>
       <c r="D4">
-        <v>0.02085301847336552</v>
+        <v>-0.03527735005081052</v>
       </c>
       <c r="E4">
-        <v>-0.08372083623717272</v>
+        <v>-0.01629235292978571</v>
       </c>
       <c r="F4">
-        <v>0.05818040078794037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06704550811315527</v>
+      </c>
+      <c r="G4">
+        <v>-0.05498139814424158</v>
+      </c>
+      <c r="H4">
+        <v>-0.009855782035212928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.00941846232478865</v>
+        <v>-0.03271622204895672</v>
       </c>
       <c r="C6">
-        <v>0.002883121447287373</v>
+        <v>0.005236767720283597</v>
       </c>
       <c r="D6">
-        <v>0.007238191038507396</v>
+        <v>-0.02887962626716068</v>
       </c>
       <c r="E6">
-        <v>0.001478803977654684</v>
+        <v>-0.003123456404821404</v>
       </c>
       <c r="F6">
-        <v>0.003705723366567139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03082329901381786</v>
+      </c>
+      <c r="G6">
+        <v>-0.01239787516969016</v>
+      </c>
+      <c r="H6">
+        <v>0.04596616566087906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03178639005843013</v>
+        <v>-0.02621203909142348</v>
       </c>
       <c r="C7">
-        <v>0.02252938581958076</v>
+        <v>0.005418673172724746</v>
       </c>
       <c r="D7">
-        <v>0.03476773505984341</v>
+        <v>-0.01819557068691378</v>
       </c>
       <c r="E7">
-        <v>-0.03791717391829247</v>
+        <v>-0.03436966532306964</v>
       </c>
       <c r="F7">
-        <v>0.06118082977723956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02854322637595904</v>
+      </c>
+      <c r="G7">
+        <v>-0.04398918426943742</v>
+      </c>
+      <c r="H7">
+        <v>-0.01223634915550811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02041899715987704</v>
+        <v>-0.007017062865938103</v>
       </c>
       <c r="C8">
-        <v>0.01298277750224564</v>
+        <v>0.004663723846854659</v>
       </c>
       <c r="D8">
-        <v>0.01144467595404356</v>
+        <v>-0.02333485970373374</v>
       </c>
       <c r="E8">
-        <v>-0.07493363925614563</v>
+        <v>-0.01098080696083512</v>
       </c>
       <c r="F8">
-        <v>0.08986881731596404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03153654242563455</v>
+      </c>
+      <c r="G8">
+        <v>-0.06087655186530797</v>
+      </c>
+      <c r="H8">
+        <v>-0.03570211535031217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.05096529485389616</v>
+        <v>-0.04285674235868144</v>
       </c>
       <c r="C9">
-        <v>0.03589350227971039</v>
+        <v>0.01204701096807281</v>
       </c>
       <c r="D9">
-        <v>0.0046055555679844</v>
+        <v>-0.03089089110775359</v>
       </c>
       <c r="E9">
-        <v>-0.08788587242445271</v>
+        <v>-0.01647319114666746</v>
       </c>
       <c r="F9">
-        <v>0.05854646857756669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04709825015021157</v>
+      </c>
+      <c r="G9">
+        <v>-0.07328376927900698</v>
+      </c>
+      <c r="H9">
+        <v>-0.008786912859262089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04058568988459645</v>
+        <v>-0.0632268898131806</v>
       </c>
       <c r="C10">
-        <v>0.04741194658175044</v>
+        <v>0.03245347722731199</v>
       </c>
       <c r="D10">
-        <v>-0.05811652190946926</v>
+        <v>0.1576577575083422</v>
       </c>
       <c r="E10">
-        <v>0.1449131833447878</v>
+        <v>0.01683313831540366</v>
       </c>
       <c r="F10">
-        <v>0.08388357121000969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08013236159232637</v>
+      </c>
+      <c r="G10">
+        <v>-0.05279275579326363</v>
+      </c>
+      <c r="H10">
+        <v>-0.01318878114271568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03569036300351858</v>
+        <v>-0.02498916452756702</v>
       </c>
       <c r="C11">
-        <v>0.01279008929300248</v>
+        <v>0.01626618796839579</v>
       </c>
       <c r="D11">
-        <v>0.02134088661883225</v>
+        <v>-0.03320129732927653</v>
       </c>
       <c r="E11">
-        <v>-0.03429041165963267</v>
+        <v>0.004827786082458665</v>
       </c>
       <c r="F11">
-        <v>0.02842786481596964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02578581710633806</v>
+      </c>
+      <c r="G11">
+        <v>-0.03889185927797927</v>
+      </c>
+      <c r="H11">
+        <v>0.005869533472787384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04300750546827887</v>
+        <v>-0.03376266856733078</v>
       </c>
       <c r="C12">
-        <v>0.01398823742512015</v>
+        <v>0.01615410998354265</v>
       </c>
       <c r="D12">
-        <v>0.01236833381265012</v>
+        <v>-0.03253427665036078</v>
       </c>
       <c r="E12">
-        <v>-0.04737665909426497</v>
+        <v>-0.005139533165689239</v>
       </c>
       <c r="F12">
-        <v>0.01498777483113015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02708096212830715</v>
+      </c>
+      <c r="G12">
+        <v>-0.01058106804110503</v>
+      </c>
+      <c r="H12">
+        <v>0.001391663629849847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.03021558691010722</v>
+        <v>-0.0318258398419772</v>
       </c>
       <c r="C13">
-        <v>0.02724338218067078</v>
+        <v>-0.004618474375087046</v>
       </c>
       <c r="D13">
-        <v>0.04003370361261773</v>
+        <v>-0.00804237083872149</v>
       </c>
       <c r="E13">
-        <v>-0.02989294439081096</v>
+        <v>0.01630925645407485</v>
       </c>
       <c r="F13">
-        <v>0.09955876712893211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02814326225530911</v>
+      </c>
+      <c r="G13">
+        <v>-0.07874322595251816</v>
+      </c>
+      <c r="H13">
+        <v>-0.017167192152987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01600266180379315</v>
+        <v>-0.01689306580175269</v>
       </c>
       <c r="C14">
-        <v>0.02530494703934705</v>
+        <v>0.004704841428300409</v>
       </c>
       <c r="D14">
-        <v>0.01303544533591695</v>
+        <v>-0.002355284774231469</v>
       </c>
       <c r="E14">
-        <v>-0.04216355101524156</v>
+        <v>-0.006941549038993925</v>
       </c>
       <c r="F14">
-        <v>0.05626371372069797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03106261818176978</v>
+      </c>
+      <c r="G14">
+        <v>-0.03993781654435299</v>
+      </c>
+      <c r="H14">
+        <v>-0.05388649375324727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02888587651999923</v>
+        <v>-0.02509730282149858</v>
       </c>
       <c r="C16">
-        <v>0.01322918360582313</v>
+        <v>0.01612135791426944</v>
       </c>
       <c r="D16">
-        <v>0.01797734988816718</v>
+        <v>-0.03084276623136755</v>
       </c>
       <c r="E16">
-        <v>-0.03247545873401</v>
+        <v>0.0001879341219214365</v>
       </c>
       <c r="F16">
-        <v>0.02992210126146311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02570551343084925</v>
+      </c>
+      <c r="G16">
+        <v>-0.02868603312575541</v>
+      </c>
+      <c r="H16">
+        <v>0.00289411072944941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0416830293599745</v>
+        <v>-0.03565166121741051</v>
       </c>
       <c r="C19">
-        <v>0.01539770723087872</v>
+        <v>0.009517481503086895</v>
       </c>
       <c r="D19">
-        <v>0.03156329290150539</v>
+        <v>-0.01744438302761191</v>
       </c>
       <c r="E19">
-        <v>-0.04255572873357687</v>
+        <v>0.004812925325452521</v>
       </c>
       <c r="F19">
-        <v>0.09455309478199925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03763149456886564</v>
+      </c>
+      <c r="G19">
+        <v>-0.08146447313045413</v>
+      </c>
+      <c r="H19">
+        <v>-0.0165196610538108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004063249552666474</v>
+        <v>-0.009413629920970269</v>
       </c>
       <c r="C20">
-        <v>0.02070912614594478</v>
+        <v>-0.004602706868988448</v>
       </c>
       <c r="D20">
-        <v>0.01982101417597633</v>
+        <v>-0.01230866675657566</v>
       </c>
       <c r="E20">
-        <v>-0.05471248221329367</v>
+        <v>-0.004083556856402206</v>
       </c>
       <c r="F20">
-        <v>0.06631441196455125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02631151079951561</v>
+      </c>
+      <c r="G20">
+        <v>-0.04920082609399756</v>
+      </c>
+      <c r="H20">
+        <v>-0.03503662682968518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006118042028788468</v>
+        <v>-0.02314978422010362</v>
       </c>
       <c r="C21">
-        <v>0.003608423301401678</v>
+        <v>-0.0008916616104646356</v>
       </c>
       <c r="D21">
-        <v>0.01943608272317116</v>
+        <v>-0.00148151962456719</v>
       </c>
       <c r="E21">
-        <v>-0.03657110252667085</v>
+        <v>-0.01085039191351701</v>
       </c>
       <c r="F21">
-        <v>0.08560240145237089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01287407127182413</v>
+      </c>
+      <c r="G21">
+        <v>-0.06370527263670127</v>
+      </c>
+      <c r="H21">
+        <v>-0.01710032250161267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03135635319159734</v>
+        <v>-0.02556129615396238</v>
       </c>
       <c r="C24">
-        <v>0.01091018417243985</v>
+        <v>0.01130160265122496</v>
       </c>
       <c r="D24">
-        <v>0.0154941012750438</v>
+        <v>-0.03103891946047508</v>
       </c>
       <c r="E24">
-        <v>-0.03239495151607216</v>
+        <v>-0.0002185298359532275</v>
       </c>
       <c r="F24">
-        <v>0.03560079903378019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02258483454667759</v>
+      </c>
+      <c r="G24">
+        <v>-0.03230804172126488</v>
+      </c>
+      <c r="H24">
+        <v>0.009529610996246983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03311598639973589</v>
+        <v>-0.03501589747170795</v>
       </c>
       <c r="C25">
-        <v>0.01259458662693159</v>
+        <v>0.01126298835811362</v>
       </c>
       <c r="D25">
-        <v>0.01265190681008725</v>
+        <v>-0.02383478272037849</v>
       </c>
       <c r="E25">
-        <v>-0.03579758095431358</v>
+        <v>-0.0007468828914492638</v>
       </c>
       <c r="F25">
-        <v>0.03649253492170303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02798907694962937</v>
+      </c>
+      <c r="G25">
+        <v>-0.03875252712630008</v>
+      </c>
+      <c r="H25">
+        <v>0.01075501180475471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01995793380398999</v>
+        <v>-0.02143675330415542</v>
       </c>
       <c r="C26">
-        <v>0.003365609352198795</v>
+        <v>-0.01367800190247495</v>
       </c>
       <c r="D26">
-        <v>0.04331464961704089</v>
+        <v>-0.01168196236526264</v>
       </c>
       <c r="E26">
-        <v>-0.04165529988679456</v>
+        <v>0.005976865456451498</v>
       </c>
       <c r="F26">
-        <v>0.05787015763310908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0100102622117535</v>
+      </c>
+      <c r="G26">
+        <v>-0.04531771260450908</v>
+      </c>
+      <c r="H26">
+        <v>-0.03230925814481521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08341865263941152</v>
+        <v>-0.03771518160842451</v>
       </c>
       <c r="C27">
-        <v>0.05799650428853208</v>
+        <v>0.02452303775815184</v>
       </c>
       <c r="D27">
-        <v>0.006243388803472812</v>
+        <v>-0.006816753574566597</v>
       </c>
       <c r="E27">
-        <v>-0.05460562329392288</v>
+        <v>-0.002178017213388756</v>
       </c>
       <c r="F27">
-        <v>0.05245212119490079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03194905025111835</v>
+      </c>
+      <c r="G27">
+        <v>-0.03142028958890568</v>
+      </c>
+      <c r="H27">
+        <v>-0.02250075035591632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05677464063192585</v>
+        <v>-0.09901388972373923</v>
       </c>
       <c r="C28">
-        <v>0.05713103151699998</v>
+        <v>0.03579825975974942</v>
       </c>
       <c r="D28">
-        <v>-0.1014993116332755</v>
+        <v>0.2332843492930541</v>
       </c>
       <c r="E28">
-        <v>0.2182165876993777</v>
+        <v>0.01854722530253245</v>
       </c>
       <c r="F28">
-        <v>0.09412458439983157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1181621886824109</v>
+      </c>
+      <c r="G28">
+        <v>-0.03797308559282343</v>
+      </c>
+      <c r="H28">
+        <v>-0.03526496779033617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02295852657481879</v>
+        <v>-0.02208115645199362</v>
       </c>
       <c r="C29">
-        <v>0.02403545037818744</v>
+        <v>0.007752407156926761</v>
       </c>
       <c r="D29">
-        <v>0.01088540988129314</v>
+        <v>-0.004644913296910808</v>
       </c>
       <c r="E29">
-        <v>-0.05429493797796087</v>
+        <v>-0.007318911166348531</v>
       </c>
       <c r="F29">
-        <v>0.04340565039453938</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03092676850543609</v>
+      </c>
+      <c r="G29">
+        <v>-0.03427414692748961</v>
+      </c>
+      <c r="H29">
+        <v>-0.05046542900840766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08672685823655413</v>
+        <v>-0.06624740055012268</v>
       </c>
       <c r="C30">
-        <v>0.06135959341343817</v>
+        <v>0.01627430133225116</v>
       </c>
       <c r="D30">
-        <v>0.04753604069037202</v>
+        <v>-0.04867052509424676</v>
       </c>
       <c r="E30">
-        <v>-0.07106143295736403</v>
+        <v>0.04135233266967894</v>
       </c>
       <c r="F30">
-        <v>0.06454348988815256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07323618889654165</v>
+      </c>
+      <c r="G30">
+        <v>-0.08391393626234504</v>
+      </c>
+      <c r="H30">
+        <v>-0.000842957108898654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05864872494681158</v>
+        <v>-0.0513952995930692</v>
       </c>
       <c r="C31">
-        <v>0.01993158817318195</v>
+        <v>0.02654334151760517</v>
       </c>
       <c r="D31">
-        <v>0.04922515122646965</v>
+        <v>-0.01626734643746015</v>
       </c>
       <c r="E31">
-        <v>-0.02047482486467293</v>
+        <v>0.01152707933189016</v>
       </c>
       <c r="F31">
-        <v>0.02836719021984365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02085258583687335</v>
+      </c>
+      <c r="G31">
+        <v>-0.01610588861816085</v>
+      </c>
+      <c r="H31">
+        <v>-0.04452135920748836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02734566163079438</v>
+        <v>-0.01127526301856158</v>
       </c>
       <c r="C32">
-        <v>0.02813147963406081</v>
+        <v>0.019343675687001</v>
       </c>
       <c r="D32">
-        <v>0.01850037250568038</v>
+        <v>-0.009254321787856448</v>
       </c>
       <c r="E32">
-        <v>-0.09054316923996832</v>
+        <v>-0.01666803895959262</v>
       </c>
       <c r="F32">
-        <v>0.06795094125604711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05394259584996813</v>
+      </c>
+      <c r="G32">
+        <v>-0.05667748074312987</v>
+      </c>
+      <c r="H32">
+        <v>0.005885245998154041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0538009422135555</v>
+        <v>-0.04154642979954536</v>
       </c>
       <c r="C33">
-        <v>0.01044653163723989</v>
+        <v>0.01149754466346742</v>
       </c>
       <c r="D33">
-        <v>0.05527823756987105</v>
+        <v>-0.0326844993192012</v>
       </c>
       <c r="E33">
-        <v>-0.06007616756188126</v>
+        <v>0.0237407503578494</v>
       </c>
       <c r="F33">
-        <v>0.08226103546496667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0198505583867062</v>
+      </c>
+      <c r="G33">
+        <v>-0.07048235646536018</v>
+      </c>
+      <c r="H33">
+        <v>-0.02784417137413721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0334624465161089</v>
+        <v>-0.02611706548038852</v>
       </c>
       <c r="C34">
-        <v>0.01944765330177201</v>
+        <v>0.02474303621405328</v>
       </c>
       <c r="D34">
-        <v>0.01714592926762569</v>
+        <v>-0.0273298321542558</v>
       </c>
       <c r="E34">
-        <v>-0.03786151919036495</v>
+        <v>-0.004717488269440674</v>
       </c>
       <c r="F34">
-        <v>0.03442108718789156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02890793141487365</v>
+      </c>
+      <c r="G34">
+        <v>-0.03152048912523406</v>
+      </c>
+      <c r="H34">
+        <v>0.007502523064135277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01249660142735066</v>
+        <v>-0.01852302120325513</v>
       </c>
       <c r="C36">
-        <v>0.009427281130712662</v>
+        <v>-0.00104870742617928</v>
       </c>
       <c r="D36">
-        <v>0.003810406431221848</v>
+        <v>0.00149953416671655</v>
       </c>
       <c r="E36">
-        <v>-0.02558271729856114</v>
+        <v>-0.002819806276197977</v>
       </c>
       <c r="F36">
-        <v>0.02597102851101923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007211936869993333</v>
+      </c>
+      <c r="G36">
+        <v>-0.02527083674788847</v>
+      </c>
+      <c r="H36">
+        <v>-0.02825017687865683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007929421589454453</v>
+        <v>-0.01492137522872267</v>
       </c>
       <c r="C38">
-        <v>0.003903124468720675</v>
+        <v>0.01920148639342767</v>
       </c>
       <c r="D38">
-        <v>-0.01198705636413142</v>
+        <v>0.0001368786519772155</v>
       </c>
       <c r="E38">
-        <v>-0.005844223241890397</v>
+        <v>-0.005351862132072163</v>
       </c>
       <c r="F38">
-        <v>0.02113361970362021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01344370368246687</v>
+      </c>
+      <c r="G38">
+        <v>-0.04002267170585262</v>
+      </c>
+      <c r="H38">
+        <v>-0.006472005011320923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04119305629324264</v>
+        <v>-0.03113786392412765</v>
       </c>
       <c r="C39">
-        <v>0.02771664900315489</v>
+        <v>0.01347925807219693</v>
       </c>
       <c r="D39">
-        <v>0.03497614229243771</v>
+        <v>-0.06350761179440863</v>
       </c>
       <c r="E39">
-        <v>-0.03772116096910946</v>
+        <v>0.003954320410285576</v>
       </c>
       <c r="F39">
-        <v>0.03111407688203457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05038606605710005</v>
+      </c>
+      <c r="G39">
+        <v>-0.05241041489112475</v>
+      </c>
+      <c r="H39">
+        <v>0.03063503376101846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03766731436828547</v>
+        <v>-0.03441419105462498</v>
       </c>
       <c r="C40">
-        <v>0.04661339751309596</v>
+        <v>0.01129777015196669</v>
       </c>
       <c r="D40">
-        <v>0.06104544496873863</v>
+        <v>-0.02577001355720378</v>
       </c>
       <c r="E40">
-        <v>-0.04578567553845882</v>
+        <v>0.02192294201905373</v>
       </c>
       <c r="F40">
-        <v>0.08847013632506544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04459908140021859</v>
+      </c>
+      <c r="G40">
+        <v>-0.06226174244559216</v>
+      </c>
+      <c r="H40">
+        <v>-0.001390095649093468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0008700523356256854</v>
+        <v>-0.006774717629732183</v>
       </c>
       <c r="C41">
-        <v>-0.003813943859383187</v>
+        <v>-0.0005190789075214071</v>
       </c>
       <c r="D41">
-        <v>0.01262736528440222</v>
+        <v>0.005336697040901772</v>
       </c>
       <c r="E41">
-        <v>-0.02346726236336523</v>
+        <v>0.00122090333763547</v>
       </c>
       <c r="F41">
-        <v>0.02527121954993218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0008296784643472309</v>
+      </c>
+      <c r="G41">
+        <v>-0.01276815310585998</v>
+      </c>
+      <c r="H41">
+        <v>-0.04017110221866274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3947667951808184</v>
+        <v>-0.2535910429725774</v>
       </c>
       <c r="C42">
-        <v>-0.8765789349249858</v>
+        <v>-0.04205201991012098</v>
       </c>
       <c r="D42">
-        <v>0.1534602390619527</v>
+        <v>-0.5449474819057651</v>
       </c>
       <c r="E42">
-        <v>0.1458136937213479</v>
+        <v>0.0965402883433259</v>
       </c>
       <c r="F42">
-        <v>-0.004246857190666242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7791590577817696</v>
+      </c>
+      <c r="G42">
+        <v>0.04442848853045999</v>
+      </c>
+      <c r="H42">
+        <v>0.009545562732778116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007304460710935707</v>
+        <v>-0.005731466123658697</v>
       </c>
       <c r="C43">
-        <v>0.000191385787417026</v>
+        <v>-0.002258594356623864</v>
       </c>
       <c r="D43">
-        <v>0.02027566365589052</v>
+        <v>0.005899813451635955</v>
       </c>
       <c r="E43">
-        <v>-0.02727140086846841</v>
+        <v>0.005425848885694612</v>
       </c>
       <c r="F43">
-        <v>0.03608471944108158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003393453099539485</v>
+      </c>
+      <c r="G43">
+        <v>-0.02201873431178776</v>
+      </c>
+      <c r="H43">
+        <v>-0.04457671885253763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02314402581662738</v>
+        <v>-0.01458524342089476</v>
       </c>
       <c r="C44">
-        <v>0.01222663234972617</v>
+        <v>0.003627649664125059</v>
       </c>
       <c r="D44">
-        <v>0.03722916259896545</v>
+        <v>-0.02633515713403853</v>
       </c>
       <c r="E44">
-        <v>-0.06360295465518692</v>
+        <v>-0.001684353990144663</v>
       </c>
       <c r="F44">
-        <v>0.1933883297634185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01168016311123849</v>
+      </c>
+      <c r="G44">
+        <v>-0.106362444852175</v>
+      </c>
+      <c r="H44">
+        <v>-0.04557249196441396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01953849782923523</v>
+        <v>-0.02183542301289941</v>
       </c>
       <c r="C46">
-        <v>0.02229216944473014</v>
+        <v>0.003614796440946111</v>
       </c>
       <c r="D46">
-        <v>0.0292775429530253</v>
+        <v>-0.01027857548897027</v>
       </c>
       <c r="E46">
-        <v>-0.05094695698325675</v>
+        <v>0.005061724251286634</v>
       </c>
       <c r="F46">
-        <v>0.03930220937355157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03668149917360758</v>
+      </c>
+      <c r="G46">
+        <v>-0.04595808430229616</v>
+      </c>
+      <c r="H46">
+        <v>-0.04802851588865158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09318612727445243</v>
+        <v>-0.07135756225183297</v>
       </c>
       <c r="C47">
-        <v>0.03899481567680554</v>
+        <v>0.04767309119222487</v>
       </c>
       <c r="D47">
-        <v>0.02935354793463021</v>
+        <v>-0.01804061524773793</v>
       </c>
       <c r="E47">
-        <v>-0.03773436313993633</v>
+        <v>0.008436255600180223</v>
       </c>
       <c r="F47">
-        <v>0.002837732345749653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03211313194129838</v>
+      </c>
+      <c r="G47">
+        <v>0.01436107182522</v>
+      </c>
+      <c r="H47">
+        <v>-0.05758569354712521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01400529103889877</v>
+        <v>-0.0171760222095539</v>
       </c>
       <c r="C48">
-        <v>0.01005752097729761</v>
+        <v>0.009327755494986318</v>
       </c>
       <c r="D48">
-        <v>0.01829700871996502</v>
+        <v>-0.006470203354399945</v>
       </c>
       <c r="E48">
-        <v>-0.03999132501735919</v>
+        <v>0.001169004554149162</v>
       </c>
       <c r="F48">
-        <v>0.0440858863231714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01384535635546842</v>
+      </c>
+      <c r="G48">
+        <v>-0.03243223822745091</v>
+      </c>
+      <c r="H48">
+        <v>-0.02198478155324684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08892286977785778</v>
+        <v>-0.0678608127805698</v>
       </c>
       <c r="C50">
-        <v>0.02254286225370753</v>
+        <v>0.04212861907440939</v>
       </c>
       <c r="D50">
-        <v>0.04239434871154174</v>
+        <v>-0.03356892487792075</v>
       </c>
       <c r="E50">
-        <v>-0.03949128684160984</v>
+        <v>-0.005412316710014554</v>
       </c>
       <c r="F50">
-        <v>0.008532533858217037</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02843175339333043</v>
+      </c>
+      <c r="G50">
+        <v>-0.01498239662371273</v>
+      </c>
+      <c r="H50">
+        <v>-0.05731578864904813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04773267977693166</v>
+        <v>-0.02796904442034524</v>
       </c>
       <c r="C51">
-        <v>0.003290695440664054</v>
+        <v>0.007027439510836424</v>
       </c>
       <c r="D51">
-        <v>0.04832423927598774</v>
+        <v>0.0008969000275601153</v>
       </c>
       <c r="E51">
-        <v>-0.01165398232901797</v>
+        <v>0.01360781170529193</v>
       </c>
       <c r="F51">
-        <v>0.1652910681537922</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01110895854462943</v>
+      </c>
+      <c r="G51">
+        <v>-0.1016023727090927</v>
+      </c>
+      <c r="H51">
+        <v>-0.0235408858416716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1139126257594567</v>
+        <v>-0.09772721747348681</v>
       </c>
       <c r="C53">
-        <v>0.04544853261561724</v>
+        <v>0.0640050870891907</v>
       </c>
       <c r="D53">
-        <v>0.05331531924219666</v>
+        <v>-0.0449091429195754</v>
       </c>
       <c r="E53">
-        <v>-0.04946785491855973</v>
+        <v>0.008309764644004174</v>
       </c>
       <c r="F53">
-        <v>-0.06853748456216416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05696929051849162</v>
+      </c>
+      <c r="G53">
+        <v>0.06243740223292278</v>
+      </c>
+      <c r="H53">
+        <v>-0.03963197431758524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02096948011772642</v>
+        <v>-0.02216569600664531</v>
       </c>
       <c r="C54">
-        <v>0.03706197673068895</v>
+        <v>0.01842728667101426</v>
       </c>
       <c r="D54">
-        <v>0.009901514996123777</v>
+        <v>0.02240173112461853</v>
       </c>
       <c r="E54">
-        <v>-0.03003463380998057</v>
+        <v>-0.002153204075823075</v>
       </c>
       <c r="F54">
-        <v>0.0801066792312027</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01874951100577075</v>
+      </c>
+      <c r="G54">
+        <v>-0.04545399387521606</v>
+      </c>
+      <c r="H54">
+        <v>-0.06479983749922663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1056747258927428</v>
+        <v>-0.08303635732203359</v>
       </c>
       <c r="C55">
-        <v>0.03124184499422691</v>
+        <v>0.05526014958167216</v>
       </c>
       <c r="D55">
-        <v>0.004041474942556584</v>
+        <v>-0.04154242235554902</v>
       </c>
       <c r="E55">
-        <v>-0.04986085671076763</v>
+        <v>-0.005834971499319947</v>
       </c>
       <c r="F55">
-        <v>-0.05591154321538864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04673216794369147</v>
+      </c>
+      <c r="G55">
+        <v>0.04929663560744083</v>
+      </c>
+      <c r="H55">
+        <v>-0.04804296013623915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1447821092601086</v>
+        <v>-0.125429504843967</v>
       </c>
       <c r="C56">
-        <v>0.07674545231094668</v>
+        <v>0.08966219244303732</v>
       </c>
       <c r="D56">
-        <v>0.02763088381681707</v>
+        <v>-0.05288190153469603</v>
       </c>
       <c r="E56">
-        <v>-0.0576661008745556</v>
+        <v>0.003407266377999936</v>
       </c>
       <c r="F56">
-        <v>-0.1580066463204918</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08170648339064313</v>
+      </c>
+      <c r="G56">
+        <v>0.1064084621379506</v>
+      </c>
+      <c r="H56">
+        <v>-0.01624043942117676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04803881131760119</v>
+        <v>-0.04360479734953854</v>
       </c>
       <c r="C57">
-        <v>0.0247268117215282</v>
+        <v>0.001064419300998039</v>
       </c>
       <c r="D57">
-        <v>0.0406724494557342</v>
+        <v>-0.02578513223763174</v>
       </c>
       <c r="E57">
-        <v>-0.03082331698267166</v>
+        <v>0.01225369499359012</v>
       </c>
       <c r="F57">
-        <v>0.08031463694208026</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03487582969550553</v>
+      </c>
+      <c r="G57">
+        <v>-0.06766233060778863</v>
+      </c>
+      <c r="H57">
+        <v>-0.0002521972989766785</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2193142989205981</v>
+        <v>-0.1377489205883571</v>
       </c>
       <c r="C58">
-        <v>0.07854193631253263</v>
+        <v>0.07443797463482206</v>
       </c>
       <c r="D58">
-        <v>0.123856980753015</v>
+        <v>-0.1048681538111414</v>
       </c>
       <c r="E58">
-        <v>-0.120036318647344</v>
+        <v>0.1063513716165783</v>
       </c>
       <c r="F58">
-        <v>0.2443015954545346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07417969256845001</v>
+      </c>
+      <c r="G58">
+        <v>-0.4943696564939978</v>
+      </c>
+      <c r="H58">
+        <v>-0.4962862385156684</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06110349531293714</v>
+        <v>-0.1032907411138771</v>
       </c>
       <c r="C59">
-        <v>0.08237910114552728</v>
+        <v>0.04631972022599815</v>
       </c>
       <c r="D59">
-        <v>-0.07544643214934733</v>
+        <v>0.2219256347188525</v>
       </c>
       <c r="E59">
-        <v>0.1560862336700069</v>
+        <v>0.03412723371900288</v>
       </c>
       <c r="F59">
-        <v>0.06202219629954116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08820095441710082</v>
+      </c>
+      <c r="G59">
+        <v>-0.04366538411333633</v>
+      </c>
+      <c r="H59">
+        <v>-0.007284672822195413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1679131597109258</v>
+        <v>-0.1663017626764109</v>
       </c>
       <c r="C60">
-        <v>0.08557949915633466</v>
+        <v>0.0785963219599841</v>
       </c>
       <c r="D60">
-        <v>0.04864196165195821</v>
+        <v>0.007559451255493302</v>
       </c>
       <c r="E60">
-        <v>0.03023679025674364</v>
+        <v>0.05957031357772729</v>
       </c>
       <c r="F60">
-        <v>0.07692124300509692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06432662650169581</v>
+      </c>
+      <c r="G60">
+        <v>-0.1704225191228684</v>
+      </c>
+      <c r="H60">
+        <v>0.3639394275757933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02192190916432942</v>
+        <v>-0.0247364364121343</v>
       </c>
       <c r="C61">
-        <v>0.01484171065686014</v>
+        <v>0.01439784424022347</v>
       </c>
       <c r="D61">
-        <v>0.01017577219598165</v>
+        <v>-0.03415025173538776</v>
       </c>
       <c r="E61">
-        <v>-0.02913393327159681</v>
+        <v>-0.001728163052182184</v>
       </c>
       <c r="F61">
-        <v>0.02825610923119996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03513990867538982</v>
+      </c>
+      <c r="G61">
+        <v>-0.0344967414563331</v>
+      </c>
+      <c r="H61">
+        <v>0.02351490173085722</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02189449266592721</v>
+        <v>-0.01803003529081145</v>
       </c>
       <c r="C63">
-        <v>0.02183197703711342</v>
+        <v>0.004659332037517798</v>
       </c>
       <c r="D63">
-        <v>0.02702998793172925</v>
+        <v>-0.01141667592742036</v>
       </c>
       <c r="E63">
-        <v>-0.04794896798234477</v>
+        <v>0.0003403357381648748</v>
       </c>
       <c r="F63">
-        <v>0.02673962567955458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02823266784981831</v>
+      </c>
+      <c r="G63">
+        <v>-0.02492000904117695</v>
+      </c>
+      <c r="H63">
+        <v>-0.03902722493208605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0505367791169723</v>
+        <v>-0.04651010477071872</v>
       </c>
       <c r="C64">
-        <v>0.02218350715871133</v>
+        <v>0.02435505088634525</v>
       </c>
       <c r="D64">
-        <v>0.01471015728519187</v>
+        <v>-0.04139452078028493</v>
       </c>
       <c r="E64">
-        <v>-0.08688584977903351</v>
+        <v>-0.008055482657367316</v>
       </c>
       <c r="F64">
-        <v>0.0508618515574622</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03562813273218287</v>
+      </c>
+      <c r="G64">
+        <v>-0.03175017350166894</v>
+      </c>
+      <c r="H64">
+        <v>-0.001426773750556996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.009198741618838449</v>
+        <v>-0.0383591468091724</v>
       </c>
       <c r="C65">
-        <v>0.001234665128355821</v>
+        <v>0.006279050114840761</v>
       </c>
       <c r="D65">
-        <v>0.005826728008287555</v>
+        <v>-0.03202473471881302</v>
       </c>
       <c r="E65">
-        <v>0.004186708964147134</v>
+        <v>-0.002820097216685733</v>
       </c>
       <c r="F65">
-        <v>0.0007651004243191857</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03061189240362172</v>
+      </c>
+      <c r="G65">
+        <v>-0.006732931041964136</v>
+      </c>
+      <c r="H65">
+        <v>0.05503572019064186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04504600678402354</v>
+        <v>-0.03885145563303031</v>
       </c>
       <c r="C66">
-        <v>0.03829902139602968</v>
+        <v>0.02170930028684176</v>
       </c>
       <c r="D66">
-        <v>0.0373933975267336</v>
+        <v>-0.0722209559145041</v>
       </c>
       <c r="E66">
-        <v>-0.05965997802386003</v>
+        <v>0.01147251294009628</v>
       </c>
       <c r="F66">
-        <v>0.03677745042909011</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07393978337476559</v>
+      </c>
+      <c r="G66">
+        <v>-0.05062807529964065</v>
+      </c>
+      <c r="H66">
+        <v>0.04342846940721971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02792529912042744</v>
+        <v>-0.03400074259899843</v>
       </c>
       <c r="C67">
-        <v>0.01220903681803968</v>
+        <v>0.02632168735082492</v>
       </c>
       <c r="D67">
-        <v>-0.01510474411927405</v>
+        <v>0.009706684542872476</v>
       </c>
       <c r="E67">
-        <v>0.01346597649783987</v>
+        <v>-4.793312567716565e-05</v>
       </c>
       <c r="F67">
-        <v>0.03034523468234474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.013353055464811</v>
+      </c>
+      <c r="G67">
+        <v>-0.03310641190858021</v>
+      </c>
+      <c r="H67">
+        <v>0.01234667395082276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06021508568839932</v>
+        <v>-0.101679157423698</v>
       </c>
       <c r="C68">
-        <v>0.06680615526611555</v>
+        <v>0.02136266110606633</v>
       </c>
       <c r="D68">
-        <v>-0.1085198726400434</v>
+        <v>0.2194707533859113</v>
       </c>
       <c r="E68">
-        <v>0.2126112097091076</v>
+        <v>0.02607275995004798</v>
       </c>
       <c r="F68">
-        <v>0.03943685225483261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1106530477209419</v>
+      </c>
+      <c r="G68">
+        <v>-0.01769323512219142</v>
+      </c>
+      <c r="H68">
+        <v>-0.05225550121969905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06965013743590605</v>
+        <v>-0.05660638682467119</v>
       </c>
       <c r="C69">
-        <v>0.03905663289323841</v>
+        <v>0.04279974685443143</v>
       </c>
       <c r="D69">
-        <v>0.02234979625383969</v>
+        <v>-0.01308930109532621</v>
       </c>
       <c r="E69">
-        <v>-0.003130308485948148</v>
+        <v>0.008603542888507169</v>
       </c>
       <c r="F69">
-        <v>0.01352591329232712</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02844143870635089</v>
+      </c>
+      <c r="G69">
+        <v>0.001544909755400682</v>
+      </c>
+      <c r="H69">
+        <v>-0.03518246243618255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08023773941842637</v>
+        <v>-0.1012429264093723</v>
       </c>
       <c r="C71">
-        <v>0.06368925625495027</v>
+        <v>0.0320564505311362</v>
       </c>
       <c r="D71">
-        <v>-0.09011070222835539</v>
+        <v>0.2024489945202833</v>
       </c>
       <c r="E71">
-        <v>0.2516844676581169</v>
+        <v>0.03142537584524253</v>
       </c>
       <c r="F71">
-        <v>0.07177181392879076</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1205880206349968</v>
+      </c>
+      <c r="G71">
+        <v>-0.03117032633717494</v>
+      </c>
+      <c r="H71">
+        <v>-0.03721571458322165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1129487345682887</v>
+        <v>-0.09786931618171504</v>
       </c>
       <c r="C72">
-        <v>0.1226514330126905</v>
+        <v>0.07378304805215576</v>
       </c>
       <c r="D72">
-        <v>0.02036165929120952</v>
+        <v>-0.04524505121042945</v>
       </c>
       <c r="E72">
-        <v>-0.05111554753885764</v>
+        <v>0.01697669077613968</v>
       </c>
       <c r="F72">
-        <v>0.01951960689203999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1175185808695171</v>
+      </c>
+      <c r="G72">
+        <v>-0.1059749824216408</v>
+      </c>
+      <c r="H72">
+        <v>0.1196304252563828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2381897481615242</v>
+        <v>-0.2323052481376288</v>
       </c>
       <c r="C73">
-        <v>0.1152013561085519</v>
+        <v>0.1037166225719021</v>
       </c>
       <c r="D73">
-        <v>0.02081785666004915</v>
+        <v>-0.008548402143687066</v>
       </c>
       <c r="E73">
-        <v>0.09410882798674702</v>
+        <v>0.09413825977520747</v>
       </c>
       <c r="F73">
-        <v>0.1540047900257137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06526310479901958</v>
+      </c>
+      <c r="G73">
+        <v>-0.247725360997892</v>
+      </c>
+      <c r="H73">
+        <v>0.5218912601519892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.125266104436957</v>
+        <v>-0.1114146175800432</v>
       </c>
       <c r="C74">
-        <v>0.04189811295359553</v>
+        <v>0.07877977529429411</v>
       </c>
       <c r="D74">
-        <v>0.02718834364937152</v>
+        <v>-0.05042365921026752</v>
       </c>
       <c r="E74">
-        <v>-0.02568943929563783</v>
+        <v>0.01057092969987019</v>
       </c>
       <c r="F74">
-        <v>-0.112993875210185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06353198919314597</v>
+      </c>
+      <c r="G74">
+        <v>0.08877115332522827</v>
+      </c>
+      <c r="H74">
+        <v>0.00527269897713115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2307087756489581</v>
+        <v>-0.2202394281252163</v>
       </c>
       <c r="C75">
-        <v>0.1133437034213734</v>
+        <v>0.157667277586563</v>
       </c>
       <c r="D75">
-        <v>0.06723752921172585</v>
+        <v>-0.05769893963691355</v>
       </c>
       <c r="E75">
-        <v>-0.03682786281480726</v>
+        <v>0.03682298423533914</v>
       </c>
       <c r="F75">
-        <v>-0.1670022445758005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.122438353455143</v>
+      </c>
+      <c r="G75">
+        <v>0.1809133507172104</v>
+      </c>
+      <c r="H75">
+        <v>-0.05408368404752056</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2578915403281484</v>
+        <v>-0.2093452312151494</v>
       </c>
       <c r="C76">
-        <v>0.134580587156661</v>
+        <v>0.1540401699111971</v>
       </c>
       <c r="D76">
-        <v>0.002898431520103305</v>
+        <v>-0.05445409912726965</v>
       </c>
       <c r="E76">
-        <v>-0.04719233562376585</v>
+        <v>-0.00544237469914275</v>
       </c>
       <c r="F76">
-        <v>-0.1999905123952277</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1301899410067008</v>
+      </c>
+      <c r="G76">
+        <v>0.1961347576738464</v>
+      </c>
+      <c r="H76">
+        <v>-0.07025304424840823</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1401709309718529</v>
+        <v>-0.08112471407682847</v>
       </c>
       <c r="C77">
-        <v>-0.006340742189764061</v>
+        <v>0.03072984501729605</v>
       </c>
       <c r="D77">
-        <v>0.06626703893406985</v>
+        <v>-0.07201732210823927</v>
       </c>
       <c r="E77">
-        <v>-0.05966440449853537</v>
+        <v>0.01360374282747953</v>
       </c>
       <c r="F77">
-        <v>0.2265264753497672</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006238694696110427</v>
+      </c>
+      <c r="G77">
+        <v>-0.13915740326637</v>
+      </c>
+      <c r="H77">
+        <v>-0.1605109932835713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05572939312718221</v>
+        <v>-0.04148780891953693</v>
       </c>
       <c r="C78">
-        <v>0.01586418662868731</v>
+        <v>0.02242156409203254</v>
       </c>
       <c r="D78">
-        <v>0.04037434538609302</v>
+        <v>-0.0519008375933677</v>
       </c>
       <c r="E78">
-        <v>-0.08656775632304578</v>
+        <v>-0.001414602245368005</v>
       </c>
       <c r="F78">
-        <v>0.03183175153540908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04586628114214529</v>
+      </c>
+      <c r="G78">
+        <v>-0.06008629151808336</v>
+      </c>
+      <c r="H78">
+        <v>-0.007615067836146306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.184359602187356</v>
+        <v>-0.1714042608918926</v>
       </c>
       <c r="C80">
-        <v>-0.1476905429759832</v>
+        <v>0.08861320444603808</v>
       </c>
       <c r="D80">
-        <v>-0.8615001974846946</v>
+        <v>0.003109518927990349</v>
       </c>
       <c r="E80">
-        <v>-0.4193050955147476</v>
+        <v>-0.9641792826191364</v>
       </c>
       <c r="F80">
-        <v>0.04227568662470039</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.08376558229475595</v>
+      </c>
+      <c r="G80">
+        <v>-0.09132560991637015</v>
+      </c>
+      <c r="H80">
+        <v>0.02049145150601706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1589965043806277</v>
+        <v>-0.1489426995865692</v>
       </c>
       <c r="C81">
-        <v>0.1008828097872443</v>
+        <v>0.1069537598998104</v>
       </c>
       <c r="D81">
-        <v>0.02644609946446468</v>
+        <v>-0.03619724366468512</v>
       </c>
       <c r="E81">
-        <v>-0.03317649863643608</v>
+        <v>0.01030665910466279</v>
       </c>
       <c r="F81">
-        <v>-0.2003674405726037</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09260029773284623</v>
+      </c>
+      <c r="G81">
+        <v>0.1377879524811308</v>
+      </c>
+      <c r="H81">
+        <v>-0.05700199187884553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05849989246132602</v>
+        <v>-0.04160918526718538</v>
       </c>
       <c r="C83">
-        <v>-0.005727565879912487</v>
+        <v>0.01862515022549914</v>
       </c>
       <c r="D83">
-        <v>0.04745756719713854</v>
+        <v>-0.02681814145947961</v>
       </c>
       <c r="E83">
-        <v>-0.04017730497807952</v>
+        <v>0.01433907411323176</v>
       </c>
       <c r="F83">
-        <v>0.08202308366608484</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01545597537622037</v>
+      </c>
+      <c r="G83">
+        <v>-0.06487720591044666</v>
+      </c>
+      <c r="H83">
+        <v>-0.01185295378313107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.23388339337575</v>
+        <v>-0.2125408819190929</v>
       </c>
       <c r="C85">
-        <v>0.0951439078150088</v>
+        <v>0.1381571452575062</v>
       </c>
       <c r="D85">
-        <v>0.03324885264672399</v>
+        <v>-0.07506046933874268</v>
       </c>
       <c r="E85">
-        <v>-0.03131312268038109</v>
+        <v>0.02526477810858637</v>
       </c>
       <c r="F85">
-        <v>-0.1852056704849311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.112507886483784</v>
+      </c>
+      <c r="G85">
+        <v>0.1774309175250103</v>
+      </c>
+      <c r="H85">
+        <v>-0.0331828168848308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01094218444657554</v>
+        <v>-0.01165524917464752</v>
       </c>
       <c r="C86">
-        <v>0.0005854110091645394</v>
+        <v>0.0007489690550333074</v>
       </c>
       <c r="D86">
-        <v>0.02505865134316544</v>
+        <v>-0.02260977591066813</v>
       </c>
       <c r="E86">
-        <v>-0.08000829598866609</v>
+        <v>0.007007905846443336</v>
       </c>
       <c r="F86">
-        <v>0.08457587422787516</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01848761907498832</v>
+      </c>
+      <c r="G86">
+        <v>-0.09795733044208392</v>
+      </c>
+      <c r="H86">
+        <v>-0.01709364579048166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02495732593206228</v>
+        <v>-0.02536110284573994</v>
       </c>
       <c r="C87">
-        <v>0.02633775944030812</v>
+        <v>0.007848384150126245</v>
       </c>
       <c r="D87">
-        <v>-0.007202426687739707</v>
+        <v>-0.01249696133189991</v>
       </c>
       <c r="E87">
-        <v>0.003698001486633826</v>
+        <v>-0.0005884249557510054</v>
       </c>
       <c r="F87">
-        <v>0.05975340946120408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01718017417463017</v>
+      </c>
+      <c r="G87">
+        <v>-0.09038748489479798</v>
+      </c>
+      <c r="H87">
+        <v>-0.001041410410167097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01134230861674268</v>
+        <v>-0.03881150608722361</v>
       </c>
       <c r="C88">
-        <v>0.0206830589541415</v>
+        <v>-0.002287523955471697</v>
       </c>
       <c r="D88">
-        <v>-0.01527614631515294</v>
+        <v>0.01227003403016629</v>
       </c>
       <c r="E88">
-        <v>-0.00945785117571861</v>
+        <v>-0.004414484448042666</v>
       </c>
       <c r="F88">
-        <v>0.03925086048235305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0148609694949766</v>
+      </c>
+      <c r="G88">
+        <v>-0.009120738816488359</v>
+      </c>
+      <c r="H88">
+        <v>-0.007459635071563519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09161839257193603</v>
+        <v>-0.1594098396938574</v>
       </c>
       <c r="C89">
-        <v>0.08058690133988725</v>
+        <v>0.04547331111136146</v>
       </c>
       <c r="D89">
-        <v>-0.1115385599879084</v>
+        <v>0.3446967129509368</v>
       </c>
       <c r="E89">
-        <v>0.3155428641202223</v>
+        <v>0.06884045115066052</v>
       </c>
       <c r="F89">
-        <v>0.136559160053504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1722824581378027</v>
+      </c>
+      <c r="G89">
+        <v>-0.02827737298055516</v>
+      </c>
+      <c r="H89">
+        <v>-0.04124192702012939</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.089639197288319</v>
+        <v>-0.1259914203629917</v>
       </c>
       <c r="C90">
-        <v>0.07723936693802341</v>
+        <v>0.03615937505279145</v>
       </c>
       <c r="D90">
-        <v>-0.1555072818393899</v>
+        <v>0.2963736255805042</v>
       </c>
       <c r="E90">
-        <v>0.2715387517315742</v>
+        <v>0.03950964877336417</v>
       </c>
       <c r="F90">
-        <v>0.07576980884246455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1598080302402186</v>
+      </c>
+      <c r="G90">
+        <v>0.01553740816043045</v>
+      </c>
+      <c r="H90">
+        <v>-0.04895234875852719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2946311006680229</v>
+        <v>-0.2355471951108286</v>
       </c>
       <c r="C91">
-        <v>0.09842417770776268</v>
+        <v>0.1646871902252112</v>
       </c>
       <c r="D91">
-        <v>0.04456753389337505</v>
+        <v>-0.06790038213003084</v>
       </c>
       <c r="E91">
-        <v>0.01190760290604003</v>
+        <v>0.03207695781312944</v>
       </c>
       <c r="F91">
-        <v>-0.2390537923267168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1097127914289709</v>
+      </c>
+      <c r="G91">
+        <v>0.2420448315911861</v>
+      </c>
+      <c r="H91">
+        <v>-0.07330012468066015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1326132136518961</v>
+        <v>-0.1828338202660651</v>
       </c>
       <c r="C92">
-        <v>0.06400391211888955</v>
+        <v>0.1186519351038265</v>
       </c>
       <c r="D92">
-        <v>-0.1662394348570537</v>
+        <v>0.2781822395964078</v>
       </c>
       <c r="E92">
-        <v>0.2813245547446666</v>
+        <v>0.02810738857612768</v>
       </c>
       <c r="F92">
-        <v>0.09857439314236523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1406420540830662</v>
+      </c>
+      <c r="G92">
+        <v>0.03358453273223122</v>
+      </c>
+      <c r="H92">
+        <v>-0.1205054095151247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09072642439035172</v>
+        <v>-0.1457229435718267</v>
       </c>
       <c r="C93">
-        <v>0.0564635447318115</v>
+        <v>0.04877924146004228</v>
       </c>
       <c r="D93">
-        <v>-0.183314153698893</v>
+        <v>0.3267294947796662</v>
       </c>
       <c r="E93">
-        <v>0.3759914318924173</v>
+        <v>0.05795636846541654</v>
       </c>
       <c r="F93">
-        <v>0.06432157660207427</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2057312217177106</v>
+      </c>
+      <c r="G93">
+        <v>0.003507741771950855</v>
+      </c>
+      <c r="H93">
+        <v>0.02739978033168566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2545990476222585</v>
+        <v>-0.2493691202630799</v>
       </c>
       <c r="C94">
-        <v>0.1247459158742511</v>
+        <v>0.1527539980633082</v>
       </c>
       <c r="D94">
-        <v>0.001685262086293149</v>
+        <v>-0.03656119470784381</v>
       </c>
       <c r="E94">
-        <v>-0.0009105240108313088</v>
+        <v>0.04418649789699362</v>
       </c>
       <c r="F94">
-        <v>-0.3301993099892077</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1182622185997492</v>
+      </c>
+      <c r="G94">
+        <v>0.272938030493286</v>
+      </c>
+      <c r="H94">
+        <v>-0.08621494800826277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1177433313118557</v>
+        <v>-0.07641682239645323</v>
       </c>
       <c r="C95">
-        <v>0.0224881302405199</v>
+        <v>0.05719584072147524</v>
       </c>
       <c r="D95">
-        <v>0.111955370212404</v>
+        <v>-0.08136909640158418</v>
       </c>
       <c r="E95">
-        <v>-0.1015978631153681</v>
+        <v>0.0777308906965823</v>
       </c>
       <c r="F95">
-        <v>0.07588660749645254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03683887839547262</v>
+      </c>
+      <c r="G95">
+        <v>-0.09272609120891025</v>
+      </c>
+      <c r="H95">
+        <v>-0.0334597902157268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1871930216361335</v>
+        <v>-0.1681428143121539</v>
       </c>
       <c r="C98">
-        <v>0.05734545468817331</v>
+        <v>0.10801323007843</v>
       </c>
       <c r="D98">
-        <v>0.02334584926176148</v>
+        <v>-0.00916915370486187</v>
       </c>
       <c r="E98">
-        <v>0.08968198207140708</v>
+        <v>0.0639263002738899</v>
       </c>
       <c r="F98">
-        <v>0.06383473386081757</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0209067133413657</v>
+      </c>
+      <c r="G98">
+        <v>-0.1929896997079993</v>
+      </c>
+      <c r="H98">
+        <v>0.4037608052943443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008936775407816689</v>
+        <v>-0.01500845558482757</v>
       </c>
       <c r="C101">
-        <v>0.03017187968754294</v>
+        <v>0.004087913448017774</v>
       </c>
       <c r="D101">
-        <v>0.03519702611164911</v>
+        <v>-0.007548103746627516</v>
       </c>
       <c r="E101">
-        <v>-0.09935045688013235</v>
+        <v>-0.003363461824206488</v>
       </c>
       <c r="F101">
-        <v>0.1393856248780306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04067078901804771</v>
+      </c>
+      <c r="G101">
+        <v>-0.08300369108497942</v>
+      </c>
+      <c r="H101">
+        <v>-0.1120790067682636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0994614537253993</v>
+        <v>-0.1084116289742619</v>
       </c>
       <c r="C102">
-        <v>0.03071690584749939</v>
+        <v>0.06323320171346147</v>
       </c>
       <c r="D102">
-        <v>0.02586764816205595</v>
+        <v>-0.04268397904434752</v>
       </c>
       <c r="E102">
-        <v>-0.066187970906711</v>
+        <v>0.004686849495070347</v>
       </c>
       <c r="F102">
-        <v>-0.117496215088257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06539263181568383</v>
+      </c>
+      <c r="G102">
+        <v>0.1172200985346506</v>
+      </c>
+      <c r="H102">
+        <v>-0.03741894921377349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02723615709307146</v>
+        <v>-0.02337430167389285</v>
       </c>
       <c r="C103">
-        <v>0.008692273849858082</v>
+        <v>0.01455650951665958</v>
       </c>
       <c r="D103">
-        <v>0.006471737417707965</v>
+        <v>-0.01049027364690022</v>
       </c>
       <c r="E103">
-        <v>-0.003134734652575966</v>
+        <v>-0.005985295936624998</v>
       </c>
       <c r="F103">
-        <v>-0.02962265135466594</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01406141459025455</v>
+      </c>
+      <c r="G103">
+        <v>0.0123227000812731</v>
+      </c>
+      <c r="H103">
+        <v>-0.0150925437732526</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4581002726210699</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8655408595805951</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.03758583282566436</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01661438372099172</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1651803648250814</v>
+      </c>
+      <c r="G104">
+        <v>0.05453049568348763</v>
+      </c>
+      <c r="H104">
+        <v>-0.009746344589466757</v>
       </c>
     </row>
   </sheetData>
